--- a/data/output/FV2504_FV2410/ORDERS/17004.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="184">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="184">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -663,6 +663,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U69" totalsRowShown="0">
+  <autoFilter ref="A1:U69"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,7 +982,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4260,5 +4293,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17004.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17004.xlsx
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -2878,52 +2878,52 @@
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="5"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V33" s="5"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -3942,7 +3942,7 @@
         <v>170</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4070,52 +4070,52 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="2"/>
       <c r="L56" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P56" s="5"/>
+      <c r="P56" s="2"/>
       <c r="Q56" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4348,52 +4348,52 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="O61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5" t="s">
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V61" s="5"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4572,48 +4572,48 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="2"/>
       <c r="L65" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5" t="s">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P65" s="5"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V65" s="5"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4668,48 +4668,48 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="2"/>
       <c r="L67" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5" t="s">
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P67" s="5"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
